--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.434811333333333</v>
+        <v>1.255104666666667</v>
       </c>
       <c r="N2">
-        <v>4.304434000000001</v>
+        <v>3.765314</v>
       </c>
       <c r="O2">
-        <v>0.1441037383382818</v>
+        <v>0.08274843238311479</v>
       </c>
       <c r="P2">
-        <v>0.1441037383382818</v>
+        <v>0.08274843238311479</v>
       </c>
       <c r="Q2">
-        <v>2.327018151658222</v>
+        <v>2.035564728067111</v>
       </c>
       <c r="R2">
-        <v>20.943163364924</v>
+        <v>18.320082552604</v>
       </c>
       <c r="S2">
-        <v>0.1441037383382818</v>
+        <v>0.08274843238311479</v>
       </c>
       <c r="T2">
-        <v>0.1441037383382818</v>
+        <v>0.08274843238311479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>8.582275000000001</v>
       </c>
       <c r="O3">
-        <v>0.2873171968596052</v>
+        <v>0.1886083876486254</v>
       </c>
       <c r="P3">
-        <v>0.2873171968596052</v>
+        <v>0.1886083876486254</v>
       </c>
       <c r="Q3">
         <v>4.639659873405556</v>
@@ -635,10 +635,10 @@
         <v>41.75693886065</v>
       </c>
       <c r="S3">
-        <v>0.2873171968596052</v>
+        <v>0.1886083876486254</v>
       </c>
       <c r="T3">
-        <v>0.2873171968596052</v>
+        <v>0.1886083876486254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.321735333333333</v>
+        <v>8.752828666666668</v>
       </c>
       <c r="N4">
-        <v>9.965206</v>
+        <v>26.258486</v>
       </c>
       <c r="O4">
-        <v>0.3336149277491712</v>
+        <v>0.5770696821709866</v>
       </c>
       <c r="P4">
-        <v>0.3336149277491712</v>
+        <v>0.5770696821709866</v>
       </c>
       <c r="Q4">
-        <v>5.387285586679555</v>
+        <v>14.19558844602178</v>
       </c>
       <c r="R4">
-        <v>48.485570280116</v>
+        <v>127.760296014196</v>
       </c>
       <c r="S4">
-        <v>0.3336149277491712</v>
+        <v>0.5770696821709866</v>
       </c>
       <c r="T4">
-        <v>0.3336149277491712</v>
+        <v>0.5770696821709866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.339489666666667</v>
+        <v>2.299023666666667</v>
       </c>
       <c r="N5">
-        <v>7.018469000000001</v>
+        <v>6.897071</v>
       </c>
       <c r="O5">
-        <v>0.2349641370529418</v>
+        <v>0.1515734977972732</v>
       </c>
       <c r="P5">
-        <v>0.2349641370529418</v>
+        <v>0.1515734977972732</v>
       </c>
       <c r="Q5">
-        <v>3.794251406770444</v>
+        <v>3.728622487945111</v>
       </c>
       <c r="R5">
-        <v>34.148262660934</v>
+        <v>33.557602391506</v>
       </c>
       <c r="S5">
-        <v>0.2349641370529418</v>
+        <v>0.1515734977972732</v>
       </c>
       <c r="T5">
-        <v>0.2349641370529418</v>
+        <v>0.1515734977972732</v>
       </c>
     </row>
   </sheetData>
